--- a/TestSequence/entry-forms.xlsx
+++ b/TestSequence/entry-forms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhohe\PycharmProjects\cmdTestSequence\TestSequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1C8A3F-BEA9-433E-9533-1D4024B4CEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B24BB-AF12-4D21-BA8E-09010231706B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DA13223-96AB-4A3B-BB1D-10D61AC51D3C}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PPS" sheetId="1" r:id="rId1"/>
     <sheet name="Misc" sheetId="2" r:id="rId2"/>
     <sheet name="Persistence Summary" sheetId="4" r:id="rId3"/>
+    <sheet name="Data Validation Lists" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>Default SDR PPS</t>
   </si>
@@ -88,9 +89,6 @@
     <t>PPS Name</t>
   </si>
   <si>
-    <t>ABC Enabled Y/N</t>
-  </si>
-  <si>
     <t>Tester Name</t>
   </si>
   <si>
@@ -134,9 +132,6 @@
   </si>
   <si>
     <t>Is MDD Universal for SDR?</t>
-  </si>
-  <si>
-    <t>Is QS Universal?</t>
   </si>
   <si>
     <t>Does manually adjusting backlight disable ABC?</t>
@@ -194,23 +189,6 @@
     <t>Is MDD Universal for HDR10?</t>
   </si>
   <si>
-    <t>Does QS default to On</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Does QS require </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥ 10 sec to wake and display HDMI signal?</t>
-    </r>
-  </si>
-  <si>
     <t>If so, how many seconds does it take to wake to HDMI signal?</t>
   </si>
   <si>
@@ -224,12 +202,105 @@
   </si>
   <si>
     <t>TV Make</t>
+  </si>
+  <si>
+    <t>ABC Enabled By Default (Y/N)</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>ABC/MDD</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>TV Makes</t>
+  </si>
+  <si>
+    <t>Store Names</t>
+  </si>
+  <si>
+    <t>Model Years</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Best Buy</t>
+  </si>
+  <si>
+    <t>Not Selectable</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Video Only</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Vizio</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Hisense</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>Insignia</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>Sharp</t>
+  </si>
+  <si>
+    <t>Does TV have QS?</t>
+  </si>
+  <si>
+    <t>Does QS default to Off?</t>
+  </si>
+  <si>
+    <t>Width (Inches)</t>
+  </si>
+  <si>
+    <t>Height (Inches)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,9 +336,10 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +361,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,10 +407,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -336,8 +427,42 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -795,6 +920,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1095,290 +1224,426 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K10:K11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
+      <c r="C1" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>6</v>
       </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="14" t="s">
         <v>8</v>
       </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17" xr:uid="{B1A56413-225C-4F9F-9309-5F97F35C22C8}">
+      <formula1>"y, n"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C6E70C-7605-48C6-8E56-97AC8DD6CF3C}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="16" t="e">
+        <f>B15/B16</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="18"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="17"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
+      <c r="B34" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <dataValidations xWindow="532" yWindow="652" count="8">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{6858C6A4-1952-4218-BACB-A9BCCC285D8D}">
+      <formula1>2010</formula1>
+      <formula2>2030</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{97CC0BE0-9E82-49E9-A0BF-C7D1C01607D4}">
+      <formula1>0</formula1>
+      <formula2>10000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="for a 4K TV this should be 2160, for 1080 resolution this would be 1080" sqref="B18" xr:uid="{82CD350E-DA5C-4894-A839-E2289BA326F7}">
+      <formula1>0</formula1>
+      <formula2>5000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="for a normal 4K TV this should be 3840. For a &quot;True 4K&quot; TV this would be 4096" sqref="B19" xr:uid="{79EEC88B-B05B-40A5-B026-46A543982D2F}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must enter a number between 1 and 12" prompt="Must enter a number between 1 and 12" sqref="B8" xr:uid="{38FA1E49-2C74-4838-BD1D-989E4C57FCA0}">
+      <formula1>1</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" prompt="Round to nearest whole number" sqref="B10:B12 B26:B31 B33" xr:uid="{9BB4D55D-A472-40EF-85FF-E7304B98912E}">
+      <formula1>"Yes, No, N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B17" xr:uid="{423182FA-4CEC-49F6-A170-716BAA2A91CB}">
+      <formula1>0</formula1>
+      <formula2>500</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{E0F3BFB6-B2A3-488E-915D-8594AD2E03F2}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="532" yWindow="652" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{D643E869-F001-4FA9-A789-2689746A2DE6}">
+          <x14:formula1>
+            <xm:f>'Data Validation Lists'!$D$2:$D$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{70CAEC5A-7447-4320-8483-603843AC3817}">
+          <x14:formula1>
+            <xm:f>'Data Validation Lists'!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1387,7 +1652,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,25 +1677,25 @@
   <sheetData>
     <row r="1" spans="1:19" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="F1" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="K1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="P1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -1438,52 +1703,52 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1937,6 +2202,7 @@
       <c r="S27" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
@@ -1950,5 +2216,3428 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{321BF9F7-3E63-4D96-8B69-0AB55918A724}">
+          <x14:formula1>
+            <xm:f>'Data Validation Lists'!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:C27 G3:H27 L3:M27 Q3:R27</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF072C20-4D96-401D-B3A3-61CE55049999}">
+  <dimension ref="A1:F535"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1.6666666666666698</v>
+      </c>
+      <c r="C2" s="13">
+        <v>44057</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1.6770833333333366</v>
+      </c>
+      <c r="C3" s="13">
+        <v>44058</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1.6875000000000033</v>
+      </c>
+      <c r="C4" s="13">
+        <v>44059</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1.6979166666666701</v>
+      </c>
+      <c r="C5" s="13">
+        <v>44060</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>1.7083333333333368</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44061</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>1.7187500000000036</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44062</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>1.7291666666666703</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44063</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>1.739583333333337</v>
+      </c>
+      <c r="C9" s="13">
+        <v>44064</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>1.7500000000000038</v>
+      </c>
+      <c r="C10" s="13">
+        <v>44065</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>1.7604166666666705</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>1.7708333333333373</v>
+      </c>
+      <c r="C12" s="13">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>1.781250000000004</v>
+      </c>
+      <c r="C13" s="13">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>1.7916666666666707</v>
+      </c>
+      <c r="C14" s="13">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>1.8020833333333375</v>
+      </c>
+      <c r="C15" s="13">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>1.8125000000000042</v>
+      </c>
+      <c r="C16" s="13">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>1.822916666666671</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>1.8333333333333377</v>
+      </c>
+      <c r="C18" s="13">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>1.8437500000000044</v>
+      </c>
+      <c r="C19" s="13">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
+        <v>1.8541666666666712</v>
+      </c>
+      <c r="C20" s="13">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>1.8645833333333379</v>
+      </c>
+      <c r="C21" s="13">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
+        <v>1.8750000000000047</v>
+      </c>
+      <c r="C22" s="13">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
+        <v>1.8854166666666714</v>
+      </c>
+      <c r="C23" s="13">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>1.8958333333333381</v>
+      </c>
+      <c r="C24" s="13">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
+        <v>1.9062500000000049</v>
+      </c>
+      <c r="C25" s="13">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
+        <v>1.9166666666666716</v>
+      </c>
+      <c r="C26" s="13">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
+        <v>1.9270833333333384</v>
+      </c>
+      <c r="C27" s="13">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="12">
+        <v>1.9375000000000051</v>
+      </c>
+      <c r="C28" s="13">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
+        <v>1.9479166666666718</v>
+      </c>
+      <c r="C29" s="13">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
+        <v>1.9583333333333386</v>
+      </c>
+      <c r="C30" s="13">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="12">
+        <v>1.9687500000000053</v>
+      </c>
+      <c r="C31" s="13">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="12">
+        <v>1.9791666666666721</v>
+      </c>
+      <c r="C32" s="13">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="12">
+        <v>1.9895833333333388</v>
+      </c>
+      <c r="C33" s="13">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="12">
+        <v>2.0000000000000053</v>
+      </c>
+      <c r="C34" s="13">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="12">
+        <v>2.0104166666666718</v>
+      </c>
+      <c r="C35" s="13">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="12">
+        <v>2.0208333333333384</v>
+      </c>
+      <c r="C36" s="13">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="12">
+        <v>2.0312500000000049</v>
+      </c>
+      <c r="C37" s="13">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="12">
+        <v>2.0416666666666714</v>
+      </c>
+      <c r="C38" s="13">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
+        <v>2.0520833333333379</v>
+      </c>
+      <c r="C39" s="13">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="12">
+        <v>2.0625000000000044</v>
+      </c>
+      <c r="C40" s="13">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="12">
+        <v>2.072916666666671</v>
+      </c>
+      <c r="C41" s="13">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="12">
+        <v>2.0833333333333375</v>
+      </c>
+      <c r="C42" s="13">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="12">
+        <v>2.093750000000004</v>
+      </c>
+      <c r="C43" s="13">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="12">
+        <v>2.1041666666666705</v>
+      </c>
+      <c r="C44" s="13">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="12">
+        <v>2.114583333333337</v>
+      </c>
+      <c r="C45" s="13">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="12">
+        <v>2.1250000000000036</v>
+      </c>
+      <c r="C46" s="13">
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="12">
+        <v>2.1354166666666701</v>
+      </c>
+      <c r="C47" s="13">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="12">
+        <v>2.1458333333333366</v>
+      </c>
+      <c r="C48" s="13">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="12">
+        <v>2.1562500000000031</v>
+      </c>
+      <c r="C49" s="13">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="12">
+        <v>2.1666666666666696</v>
+      </c>
+      <c r="C50" s="13">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="12">
+        <v>2.1770833333333361</v>
+      </c>
+      <c r="C51" s="13">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="12">
+        <v>2.1875000000000027</v>
+      </c>
+      <c r="C52" s="13">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="12">
+        <v>2.1979166666666692</v>
+      </c>
+      <c r="C53" s="13">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="12">
+        <v>2.2083333333333357</v>
+      </c>
+      <c r="C54" s="13">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="12">
+        <v>2.2187500000000022</v>
+      </c>
+      <c r="C55" s="13">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="12">
+        <v>2.2291666666666687</v>
+      </c>
+      <c r="C56" s="13">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="12">
+        <v>2.2395833333333353</v>
+      </c>
+      <c r="C57" s="13">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="12">
+        <v>2.2500000000000018</v>
+      </c>
+      <c r="C58" s="13">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="12">
+        <v>2.2604166666666683</v>
+      </c>
+      <c r="C59" s="13">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="12">
+        <v>2.2708333333333348</v>
+      </c>
+      <c r="C60" s="13">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="12">
+        <v>2.2812500000000013</v>
+      </c>
+      <c r="C61" s="13">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="12">
+        <v>2.2916666666666679</v>
+      </c>
+      <c r="C62" s="13">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="12">
+        <v>2.3020833333333344</v>
+      </c>
+      <c r="C63" s="13">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="12">
+        <v>2.3125000000000009</v>
+      </c>
+      <c r="C64" s="13">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="12">
+        <v>2.3229166666666674</v>
+      </c>
+      <c r="C65" s="13">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="12">
+        <v>2.3333333333333339</v>
+      </c>
+      <c r="C66" s="13">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="12">
+        <v>2.3437500000000004</v>
+      </c>
+      <c r="C67" s="13">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="12">
+        <v>2.354166666666667</v>
+      </c>
+      <c r="C68" s="13">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="12">
+        <v>2.3645833333333335</v>
+      </c>
+      <c r="C69" s="13">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="12">
+        <v>2.375</v>
+      </c>
+      <c r="C70" s="13">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="12">
+        <v>2.3854166666666665</v>
+      </c>
+      <c r="C71" s="13">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="12">
+        <v>2.395833333333333</v>
+      </c>
+      <c r="C72" s="13">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="12">
+        <v>2.4062499999999996</v>
+      </c>
+      <c r="C73" s="13">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="12">
+        <v>2.4166666666666661</v>
+      </c>
+      <c r="C74" s="13">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="12">
+        <v>2.4270833333333326</v>
+      </c>
+      <c r="C75" s="13">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="12">
+        <v>2.4374999999999991</v>
+      </c>
+      <c r="C76" s="13">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="12">
+        <v>2.4479166666666656</v>
+      </c>
+      <c r="C77" s="13">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="12">
+        <v>2.4583333333333321</v>
+      </c>
+      <c r="C78" s="13">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="12">
+        <v>2.4687499999999987</v>
+      </c>
+      <c r="C79" s="13">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="12">
+        <v>2.4791666666666652</v>
+      </c>
+      <c r="C80" s="13">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="12">
+        <v>2.4895833333333317</v>
+      </c>
+      <c r="C81" s="13">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="12">
+        <v>2.4999999999999982</v>
+      </c>
+      <c r="C82" s="13">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="12">
+        <v>2.5104166666666647</v>
+      </c>
+      <c r="C83" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="12">
+        <v>2.5208333333333313</v>
+      </c>
+      <c r="C84" s="13">
+        <v>44139</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="12">
+        <v>2.5312499999999978</v>
+      </c>
+      <c r="C85" s="13">
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="12">
+        <v>2.5416666666666643</v>
+      </c>
+      <c r="C86" s="13">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="12">
+        <v>2.5520833333333308</v>
+      </c>
+      <c r="C87" s="13">
+        <v>44142</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="12">
+        <v>2.5624999999999973</v>
+      </c>
+      <c r="C88" s="13">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="12">
+        <v>2.5729166666666639</v>
+      </c>
+      <c r="C89" s="13">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="12">
+        <v>2.5833333333333304</v>
+      </c>
+      <c r="C90" s="13">
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="12">
+        <v>2.5937499999999969</v>
+      </c>
+      <c r="C91" s="13">
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="12">
+        <v>2.6041666666666634</v>
+      </c>
+      <c r="C92" s="13">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="12">
+        <v>2.6145833333333299</v>
+      </c>
+      <c r="C93" s="13">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="12">
+        <v>2.6249999999999964</v>
+      </c>
+      <c r="C94" s="13">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="12">
+        <v>2.635416666666663</v>
+      </c>
+      <c r="C95" s="13">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="12">
+        <v>2.6458333333333295</v>
+      </c>
+      <c r="C96" s="13">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="12">
+        <v>2.656249999999996</v>
+      </c>
+      <c r="C97" s="13">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="12">
+        <v>2.6666666666666625</v>
+      </c>
+      <c r="C98" s="13">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="12">
+        <v>2.677083333333329</v>
+      </c>
+      <c r="C99" s="13">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="12">
+        <v>2.6874999999999956</v>
+      </c>
+      <c r="C100" s="13">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="12">
+        <v>2.6979166666666621</v>
+      </c>
+      <c r="C101" s="13">
+        <v>44156</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="12">
+        <v>2.7083333333333286</v>
+      </c>
+      <c r="C102" s="13">
+        <v>44157</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="12">
+        <v>2.7187499999999951</v>
+      </c>
+      <c r="C103" s="13">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="12">
+        <v>2.7291666666666616</v>
+      </c>
+      <c r="C104" s="13">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="12">
+        <v>2.7395833333333282</v>
+      </c>
+      <c r="C105" s="13">
+        <v>44160</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="12">
+        <v>2.7499999999999947</v>
+      </c>
+      <c r="C106" s="13">
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="12">
+        <v>2.7604166666666612</v>
+      </c>
+      <c r="C107" s="13">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="12">
+        <v>2.7708333333333277</v>
+      </c>
+      <c r="C108" s="13">
+        <v>44163</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="12">
+        <v>2.7812499999999942</v>
+      </c>
+      <c r="C109" s="13">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="12">
+        <v>2.7916666666666607</v>
+      </c>
+      <c r="C110" s="13">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="12">
+        <v>2.8020833333333273</v>
+      </c>
+      <c r="C111" s="13">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="12">
+        <v>2.8124999999999938</v>
+      </c>
+      <c r="C112" s="13">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="12">
+        <v>2.8229166666666603</v>
+      </c>
+      <c r="C113" s="13">
+        <v>44168</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="12">
+        <v>2.8333333333333268</v>
+      </c>
+      <c r="C114" s="13">
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="12">
+        <v>2.8437499999999933</v>
+      </c>
+      <c r="C115" s="13">
+        <v>44170</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="12">
+        <v>2.8541666666666599</v>
+      </c>
+      <c r="C116" s="13">
+        <v>44171</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="12">
+        <v>2.8645833333333264</v>
+      </c>
+      <c r="C117" s="13">
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="12">
+        <v>2.8749999999999929</v>
+      </c>
+      <c r="C118" s="13">
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="12">
+        <v>2.8854166666666594</v>
+      </c>
+      <c r="C119" s="13">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="12">
+        <v>2.8958333333333259</v>
+      </c>
+      <c r="C120" s="13">
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="12">
+        <v>2.9062499999999925</v>
+      </c>
+      <c r="C121" s="13">
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="12">
+        <v>2.916666666666659</v>
+      </c>
+      <c r="C122" s="13">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="12">
+        <v>2.9270833333333255</v>
+      </c>
+      <c r="C123" s="13">
+        <v>44178</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="12">
+        <v>2.937499999999992</v>
+      </c>
+      <c r="C124" s="13">
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="12">
+        <v>2.9479166666666585</v>
+      </c>
+      <c r="C125" s="13">
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="12">
+        <v>2.958333333333325</v>
+      </c>
+      <c r="C126" s="13">
+        <v>44181</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="12">
+        <v>2.9687499999999916</v>
+      </c>
+      <c r="C127" s="13">
+        <v>44182</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="12">
+        <v>2.9791666666666581</v>
+      </c>
+      <c r="C128" s="13">
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="12">
+        <v>2.9895833333333246</v>
+      </c>
+      <c r="C129" s="13">
+        <v>44184</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="12">
+        <v>2.9999999999999911</v>
+      </c>
+      <c r="C130" s="13">
+        <v>44185</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="12">
+        <v>3.0104166666666576</v>
+      </c>
+      <c r="C131" s="13">
+        <v>44186</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="12">
+        <v>3.0208333333333242</v>
+      </c>
+      <c r="C132" s="13">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="12">
+        <v>3.0312499999999907</v>
+      </c>
+      <c r="C133" s="13">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="12">
+        <v>3.0416666666666572</v>
+      </c>
+      <c r="C134" s="13">
+        <v>44189</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="12">
+        <v>3.0520833333333237</v>
+      </c>
+      <c r="C135" s="13">
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="12">
+        <v>3.0624999999999902</v>
+      </c>
+      <c r="C136" s="13">
+        <v>44191</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="12">
+        <v>3.0729166666666567</v>
+      </c>
+      <c r="C137" s="13">
+        <v>44192</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="12">
+        <v>3.0833333333333233</v>
+      </c>
+      <c r="C138" s="13">
+        <v>44193</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="12">
+        <v>3.0937499999999898</v>
+      </c>
+      <c r="C139" s="13">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="12">
+        <v>3.1041666666666563</v>
+      </c>
+      <c r="C140" s="13">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="12">
+        <v>3.1145833333333228</v>
+      </c>
+      <c r="C141" s="13">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="12">
+        <v>3.1249999999999893</v>
+      </c>
+      <c r="C142" s="13">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="12">
+        <v>3.1354166666666559</v>
+      </c>
+      <c r="C143" s="13">
+        <v>44198</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="12">
+        <v>3.1458333333333224</v>
+      </c>
+      <c r="C144" s="13">
+        <v>44199</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="12">
+        <v>3.1562499999999889</v>
+      </c>
+      <c r="C145" s="13">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="12">
+        <v>3.1666666666666554</v>
+      </c>
+      <c r="C146" s="13">
+        <v>44201</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="12">
+        <v>3.1770833333333219</v>
+      </c>
+      <c r="C147" s="13">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="12">
+        <v>3.1874999999999885</v>
+      </c>
+      <c r="C148" s="13">
+        <v>44203</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="12">
+        <v>3.197916666666655</v>
+      </c>
+      <c r="C149" s="13">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="12">
+        <v>3.2083333333333215</v>
+      </c>
+      <c r="C150" s="13">
+        <v>44205</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="12">
+        <v>3.218749999999988</v>
+      </c>
+      <c r="C151" s="13">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="12">
+        <v>3.2291666666666545</v>
+      </c>
+      <c r="C152" s="13">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="12">
+        <v>3.239583333333321</v>
+      </c>
+      <c r="C153" s="13">
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="12">
+        <v>3.2499999999999876</v>
+      </c>
+      <c r="C154" s="13">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="12">
+        <v>3.2604166666666541</v>
+      </c>
+      <c r="C155" s="13">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="12">
+        <v>3.2708333333333206</v>
+      </c>
+      <c r="C156" s="13">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="12">
+        <v>3.2812499999999871</v>
+      </c>
+      <c r="C157" s="13">
+        <v>44212</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="12">
+        <v>3.2916666666666536</v>
+      </c>
+      <c r="C158" s="13">
+        <v>44213</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="12">
+        <v>3.3020833333333202</v>
+      </c>
+      <c r="C159" s="13">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="12">
+        <v>3.3124999999999867</v>
+      </c>
+      <c r="C160" s="13">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="12">
+        <v>3.3229166666666532</v>
+      </c>
+      <c r="C161" s="13">
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="12">
+        <v>3.3333333333333197</v>
+      </c>
+      <c r="C162" s="13">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="12">
+        <v>3.3437499999999862</v>
+      </c>
+      <c r="C163" s="13">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="12">
+        <v>3.3541666666666528</v>
+      </c>
+      <c r="C164" s="13">
+        <v>44219</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="12">
+        <v>3.3645833333333193</v>
+      </c>
+      <c r="C165" s="13">
+        <v>44220</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="12">
+        <v>3.3749999999999858</v>
+      </c>
+      <c r="C166" s="13">
+        <v>44221</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="12">
+        <v>3.3854166666666523</v>
+      </c>
+      <c r="C167" s="13">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="12">
+        <v>3.3958333333333188</v>
+      </c>
+      <c r="C168" s="13">
+        <v>44223</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="12">
+        <v>3.4062499999999853</v>
+      </c>
+      <c r="C169" s="13">
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="12">
+        <v>3.4166666666666519</v>
+      </c>
+      <c r="C170" s="13">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="12">
+        <v>3.4270833333333184</v>
+      </c>
+      <c r="C171" s="13">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="12">
+        <v>3.4374999999999849</v>
+      </c>
+      <c r="C172" s="13">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="12">
+        <v>3.4479166666666514</v>
+      </c>
+      <c r="C173" s="13">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="12">
+        <v>3.4583333333333179</v>
+      </c>
+      <c r="C174" s="13">
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="12">
+        <v>3.4687499999999845</v>
+      </c>
+      <c r="C175" s="13">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="12">
+        <v>3.479166666666651</v>
+      </c>
+      <c r="C176" s="13">
+        <v>44231</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="12">
+        <v>3.4895833333333175</v>
+      </c>
+      <c r="C177" s="13">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="12">
+        <v>3.499999999999984</v>
+      </c>
+      <c r="C178" s="13">
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="12">
+        <v>3.5104166666666505</v>
+      </c>
+      <c r="C179" s="13">
+        <v>44234</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="12">
+        <v>3.5208333333333171</v>
+      </c>
+      <c r="C180" s="13">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="12">
+        <v>3.5312499999999836</v>
+      </c>
+      <c r="C181" s="13">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="12">
+        <v>3.5416666666666501</v>
+      </c>
+      <c r="C182" s="13">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="12">
+        <v>3.5520833333333166</v>
+      </c>
+      <c r="C183" s="13">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="12">
+        <v>3.5624999999999831</v>
+      </c>
+      <c r="C184" s="13">
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="12">
+        <v>3.5729166666666496</v>
+      </c>
+      <c r="C185" s="13">
+        <v>44240</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="12">
+        <v>3.5833333333333162</v>
+      </c>
+      <c r="C186" s="13">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="12">
+        <v>3.5937499999999827</v>
+      </c>
+      <c r="C187" s="13">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="12">
+        <v>3.6041666666666492</v>
+      </c>
+      <c r="C188" s="13">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="12">
+        <v>3.6145833333333157</v>
+      </c>
+      <c r="C189" s="13">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="12">
+        <v>3.6249999999999822</v>
+      </c>
+      <c r="C190" s="13">
+        <v>44245</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="12">
+        <v>3.6354166666666488</v>
+      </c>
+      <c r="C191" s="13">
+        <v>44246</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" s="12">
+        <v>3.6458333333333153</v>
+      </c>
+      <c r="C192" s="13">
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="12">
+        <v>3.6562499999999818</v>
+      </c>
+      <c r="C193" s="13">
+        <v>44248</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="12"/>
+      <c r="C194" s="13">
+        <v>44249</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="12"/>
+      <c r="C195" s="13">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="12"/>
+      <c r="C196" s="13">
+        <v>44251</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="12"/>
+      <c r="C197" s="13">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="12"/>
+      <c r="C198" s="13">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="12"/>
+      <c r="C199" s="13">
+        <v>44254</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="12"/>
+      <c r="C200" s="13">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="12"/>
+      <c r="C201" s="13">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="12"/>
+      <c r="C202" s="13">
+        <v>44257</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="12"/>
+      <c r="C203" s="13">
+        <v>44258</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="12"/>
+      <c r="C204" s="13">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="12"/>
+      <c r="C205" s="13">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="12"/>
+      <c r="C206" s="13">
+        <v>44261</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="12"/>
+      <c r="C207" s="13">
+        <v>44262</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" s="12"/>
+      <c r="C208" s="13">
+        <v>44263</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="12"/>
+      <c r="C209" s="13">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="12"/>
+      <c r="C210" s="13">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="12"/>
+      <c r="C211" s="13">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="12"/>
+      <c r="C212" s="13">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="12"/>
+      <c r="C213" s="13">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="12"/>
+      <c r="C214" s="13">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="12"/>
+      <c r="C215" s="13">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="12"/>
+      <c r="C216" s="13">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="12"/>
+      <c r="C217" s="13">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="12"/>
+      <c r="C218" s="13">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="12"/>
+      <c r="C219" s="13">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="12"/>
+      <c r="C220" s="13">
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="12"/>
+      <c r="C221" s="13">
+        <v>44276</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="12"/>
+      <c r="C222" s="13">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" s="12"/>
+      <c r="C223" s="13">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="12"/>
+      <c r="C224" s="13">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="12"/>
+      <c r="C225" s="13">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="12"/>
+      <c r="C226" s="13">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="12"/>
+      <c r="C227" s="13">
+        <v>44282</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="12"/>
+      <c r="C228" s="13">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="12"/>
+      <c r="C229" s="13">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="12"/>
+      <c r="C230" s="13">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="12"/>
+      <c r="C231" s="13">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="12"/>
+      <c r="C232" s="13">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="12"/>
+      <c r="C233" s="13">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234" s="12"/>
+      <c r="C234" s="13">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="12"/>
+      <c r="C235" s="13">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="12"/>
+      <c r="C236" s="13">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="12"/>
+      <c r="C237" s="13">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="12"/>
+      <c r="C238" s="13">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="12"/>
+      <c r="C239" s="13">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="12"/>
+      <c r="C240" s="13">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" s="12"/>
+      <c r="C241" s="13">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="12"/>
+      <c r="C242" s="13">
+        <v>44297</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243" s="12"/>
+      <c r="C243" s="13">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244" s="12"/>
+      <c r="C244" s="13">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" s="12"/>
+      <c r="C245" s="13">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" s="12"/>
+      <c r="C246" s="13">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="12"/>
+      <c r="C247" s="13">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" s="12"/>
+      <c r="C248" s="13">
+        <v>44303</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249" s="12"/>
+      <c r="C249" s="13">
+        <v>44304</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="12"/>
+      <c r="C250" s="13">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251" s="12"/>
+      <c r="C251" s="13">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B252" s="12"/>
+      <c r="C252" s="13">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253" s="12"/>
+      <c r="C253" s="13">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254" s="12"/>
+      <c r="C254" s="13">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255" s="12"/>
+      <c r="C255" s="13">
+        <v>44310</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B256" s="12"/>
+      <c r="C256" s="13">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B257" s="12"/>
+      <c r="C257" s="13">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B258" s="12"/>
+      <c r="C258" s="13">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259" s="12"/>
+      <c r="C259" s="13">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B260" s="12"/>
+      <c r="C260" s="13">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B261" s="12"/>
+      <c r="C261" s="13">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B262" s="12"/>
+      <c r="C262" s="13">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B263" s="12"/>
+      <c r="C263" s="13">
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264" s="12"/>
+      <c r="C264" s="13">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265" s="12"/>
+      <c r="C265" s="13">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C266" s="13">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C267" s="13">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C268" s="13">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C269" s="13">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C270" s="13">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C271" s="13">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C272" s="13">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="13">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="13">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="13">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="13">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="13">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" s="13">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="13">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="13">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="13">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="13">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="13">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="13">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="13">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="13">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="13">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" s="13">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" s="13">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="13">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="13">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" s="13">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="13">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="13">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="13">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="13">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="13">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="13">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="13">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" s="13">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="13">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="13">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="13">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" s="13">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="13">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="13">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="13">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" s="13">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="13">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="13">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="13">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" s="13">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="13">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" s="13">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="13">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" s="13">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="13">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" s="13">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="13">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="13">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="13">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="13">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="13">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="13">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="13">
+        <v>44380</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="13">
+        <v>44381</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="13">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="13">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="13">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="13">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="13">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" s="13">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="13">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="13">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="13">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" s="13">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="13">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" s="13">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" s="13">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" s="13">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" s="13">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" s="13">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" s="13">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" s="13">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" s="13">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="13">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="13">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="13">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="13">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" s="13">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" s="13">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" s="13">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="13">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="13">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="13">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="13">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="13">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" s="13">
+        <v>44413</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" s="13">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" s="13">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" s="13">
+        <v>44416</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" s="13">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" s="13">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364" s="13">
+        <v>44419</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" s="13">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366" s="13">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" s="13">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" s="13">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" s="13">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" s="13">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" s="13">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" s="13">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" s="13">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374" s="13">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="13">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C376" s="13">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="13">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C378" s="13">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379" s="13">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C380" s="13">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381" s="13">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C382" s="13">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383" s="13">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C384" s="13">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="13">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C386" s="13">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C387" s="13">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C388" s="13">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C389" s="13">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C390" s="13">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C391" s="13">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C392" s="13">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C393" s="13">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C394" s="13">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C395" s="13">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C396" s="13">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C397" s="13">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C398" s="13">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C399" s="13">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C400" s="13">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" s="13">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C402" s="13">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C403" s="13">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C404" s="13">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C405" s="13">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C406" s="13">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C407" s="13">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C408" s="13">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C409" s="13">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C410" s="13">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C411" s="13">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C412" s="13">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C413" s="13">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C414" s="13">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C415" s="13">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C416" s="13">
+        <v>44471</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C417" s="13">
+        <v>44472</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C418" s="13">
+        <v>44473</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C419" s="13">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C420" s="13">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C421" s="13">
+        <v>44476</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C422" s="13">
+        <v>44477</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C423" s="13">
+        <v>44478</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C424" s="13">
+        <v>44479</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="13">
+        <v>44480</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C426" s="13">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C427" s="13">
+        <v>44482</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C428" s="13">
+        <v>44483</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C429" s="13">
+        <v>44484</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C430" s="13">
+        <v>44485</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C431" s="13">
+        <v>44486</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C432" s="13">
+        <v>44487</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C433" s="13">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C434" s="13">
+        <v>44489</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C435" s="13">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C436" s="13">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C437" s="13">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C438" s="13">
+        <v>44493</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C439" s="13">
+        <v>44494</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C440" s="13">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C441" s="13">
+        <v>44496</v>
+      </c>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C442" s="13">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C443" s="13">
+        <v>44498</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C444" s="13">
+        <v>44499</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C445" s="13">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C446" s="13">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C447" s="13">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C448" s="13">
+        <v>44503</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C449" s="13">
+        <v>44504</v>
+      </c>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C450" s="13">
+        <v>44505</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="13">
+        <v>44506</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C452" s="13">
+        <v>44507</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C453" s="13">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C454" s="13">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C455" s="13">
+        <v>44510</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C456" s="13">
+        <v>44511</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C457" s="13">
+        <v>44512</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C458" s="13">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C459" s="13">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C460" s="13">
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C461" s="13">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C462" s="13">
+        <v>44517</v>
+      </c>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C463" s="13">
+        <v>44518</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C464" s="13">
+        <v>44519</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C465" s="13">
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C466" s="13">
+        <v>44521</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C467" s="13">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C468" s="13">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C469" s="13">
+        <v>44524</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C470" s="13">
+        <v>44525</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C471" s="13">
+        <v>44526</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C472" s="13">
+        <v>44527</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C473" s="13">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C474" s="13">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C475" s="13">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C476" s="13">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C477" s="13">
+        <v>44532</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C478" s="13">
+        <v>44533</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C479" s="13">
+        <v>44534</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C480" s="13">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C481" s="13">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C482" s="13">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C483" s="13">
+        <v>44538</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C484" s="13">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C485" s="13">
+        <v>44540</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C486" s="13">
+        <v>44541</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C487" s="13">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C488" s="13">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C489" s="13">
+        <v>44544</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C490" s="13">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C491" s="13">
+        <v>44546</v>
+      </c>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C492" s="13">
+        <v>44547</v>
+      </c>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C493" s="13">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C494" s="13">
+        <v>44549</v>
+      </c>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C495" s="13">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C496" s="13">
+        <v>44551</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C497" s="13">
+        <v>44552</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C498" s="13">
+        <v>44553</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C499" s="13">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C500" s="13">
+        <v>44555</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C501" s="13">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C502" s="13">
+        <v>44557</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C503" s="13">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C504" s="13">
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C505" s="13">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C506" s="13">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C507" s="13">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C508" s="13">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C509" s="13">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C510" s="13">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C511" s="13">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C512" s="13">
+        <v>44567</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C513" s="13">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C514" s="13">
+        <v>44569</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C515" s="13">
+        <v>44570</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C516" s="13">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C517" s="13">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C518" s="13">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C519" s="13">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C520" s="13">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C521" s="13">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C522" s="13">
+        <v>44577</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C523" s="13">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C524" s="13">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C525" s="13">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C526" s="13">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C527" s="13">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C528" s="13">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C529" s="13">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C530" s="13">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C531" s="13">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C532" s="13">
+        <v>44587</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C533" s="13">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C534" s="13">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C535" s="13">
+        <v>44590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestSequence/entry-forms.xlsx
+++ b/TestSequence/entry-forms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhohe\PycharmProjects\cmdTestSequence\TestSequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B24BB-AF12-4D21-BA8E-09010231706B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529BC8B6-06D1-4643-BB41-52946B0C817F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DA13223-96AB-4A3B-BB1D-10D61AC51D3C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1DA13223-96AB-4A3B-BB1D-10D61AC51D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="PPS" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>Tester Name</t>
   </si>
   <si>
-    <t>Model number</t>
-  </si>
-  <si>
     <t>Model year</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>Aspect Ratio (w/h)</t>
-  </si>
-  <si>
-    <t>Screen area (sq in)</t>
   </si>
   <si>
     <t>Price (USD)</t>
@@ -201,9 +195,6 @@
     <t>Test Kit ID Number</t>
   </si>
   <si>
-    <t>TV Make</t>
-  </si>
-  <si>
     <t>ABC Enabled By Default (Y/N)</t>
   </si>
   <si>
@@ -289,6 +280,15 @@
   </si>
   <si>
     <t>Height (Inches)</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Screen Area (sq in)</t>
   </si>
 </sst>
 </file>
@@ -298,8 +298,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -421,12 +421,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -450,15 +444,21 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,10 +920,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1223,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABEEA5A-668C-4A40-B3B9-CE96DF215FC9}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1236,127 +1232,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>55</v>
+      <c r="C1" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>56</v>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -1375,223 +1371,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C6E70C-7605-48C6-8E56-97AC8DD6CF3C}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="64" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="8"/>
+      <c r="A2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="A3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="15"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="15"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="16" t="e">
+      <c r="B20" s="14" t="e">
         <f>B15/B16</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="16"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="18"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="15"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="17"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="17"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="17"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="17"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="17"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="17"/>
+      <c r="B33" s="15"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="8"/>
+      <c r="A34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="6"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -1676,79 +1672,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="5" t="s">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="F1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="K1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="P1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="P1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2250,3390 +2246,3390 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="12">
+        <v>61</v>
+      </c>
+      <c r="B2" s="10">
         <v>1.6666666666666698</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>44057</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="12">
+        <v>64</v>
+      </c>
+      <c r="B3" s="10">
         <v>1.6770833333333366</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>44058</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="12">
+        <v>66</v>
+      </c>
+      <c r="B4" s="10">
         <v>1.6875000000000033</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>44059</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1.6979166666666701</v>
+      </c>
+      <c r="C5" s="11">
+        <v>44060</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>1.7083333333333368</v>
+      </c>
+      <c r="C6" s="11">
+        <v>44061</v>
+      </c>
+      <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="12">
-        <v>1.6979166666666701</v>
-      </c>
-      <c r="C5" s="13">
-        <v>44060</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>1.7187500000000036</v>
+      </c>
+      <c r="C7" s="11">
+        <v>44062</v>
+      </c>
+      <c r="D7" t="s">
         <v>73</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>1.7291666666666703</v>
+      </c>
+      <c r="C8" s="11">
+        <v>44063</v>
+      </c>
+      <c r="D8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
-        <v>1.7083333333333368</v>
-      </c>
-      <c r="C6" s="13">
-        <v>44061</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>1.739583333333337</v>
+      </c>
+      <c r="C9" s="11">
+        <v>44064</v>
+      </c>
+      <c r="D9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
-        <v>1.7187500000000036</v>
-      </c>
-      <c r="C7" s="13">
-        <v>44062</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>1.7500000000000038</v>
+      </c>
+      <c r="C10" s="11">
+        <v>44065</v>
+      </c>
+      <c r="D10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
-        <v>1.7291666666666703</v>
-      </c>
-      <c r="C8" s="13">
-        <v>44063</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
-        <v>1.739583333333337</v>
-      </c>
-      <c r="C9" s="13">
-        <v>44064</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
-        <v>1.7500000000000038</v>
-      </c>
-      <c r="C10" s="13">
-        <v>44065</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>1.7604166666666705</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>44066</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>1.7708333333333373</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>44067</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>1.781250000000004</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>44068</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>1.7916666666666707</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>44069</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>1.8020833333333375</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>44070</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>1.8125000000000042</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>44071</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>1.822916666666671</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>44072</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>1.8333333333333377</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>44073</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>1.8437500000000044</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>44074</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>1.8541666666666712</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>44075</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>1.8645833333333379</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>44076</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>1.8750000000000047</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>44077</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>1.8854166666666714</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <v>44078</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>1.8958333333333381</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>44079</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>1.9062500000000049</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <v>44080</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>1.9166666666666716</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="11">
         <v>44081</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>1.9270833333333384</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="11">
         <v>44082</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>1.9375000000000051</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <v>44083</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>1.9479166666666718</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <v>44084</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>1.9583333333333386</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="11">
         <v>44085</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>1.9687500000000053</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <v>44086</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>1.9791666666666721</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="11">
         <v>44087</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>1.9895833333333388</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="11">
         <v>44088</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <v>2.0000000000000053</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="11">
         <v>44089</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <v>2.0104166666666718</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="11">
         <v>44090</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
+      <c r="B36" s="10">
         <v>2.0208333333333384</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <v>44091</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
+      <c r="B37" s="10">
         <v>2.0312500000000049</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="11">
         <v>44092</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
+      <c r="B38" s="10">
         <v>2.0416666666666714</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="11">
         <v>44093</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <v>2.0520833333333379</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="11">
         <v>44094</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>2.0625000000000044</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="11">
         <v>44095</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
+      <c r="B41" s="10">
         <v>2.072916666666671</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="11">
         <v>44096</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
+      <c r="B42" s="10">
         <v>2.0833333333333375</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="11">
         <v>44097</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
+      <c r="B43" s="10">
         <v>2.093750000000004</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="11">
         <v>44098</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
+      <c r="B44" s="10">
         <v>2.1041666666666705</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="11">
         <v>44099</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
+      <c r="B45" s="10">
         <v>2.114583333333337</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="11">
         <v>44100</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
+      <c r="B46" s="10">
         <v>2.1250000000000036</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="11">
         <v>44101</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
+      <c r="B47" s="10">
         <v>2.1354166666666701</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="11">
         <v>44102</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
+      <c r="B48" s="10">
         <v>2.1458333333333366</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="11">
         <v>44103</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
+      <c r="B49" s="10">
         <v>2.1562500000000031</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="11">
         <v>44104</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
+      <c r="B50" s="10">
         <v>2.1666666666666696</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="11">
         <v>44105</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
+      <c r="B51" s="10">
         <v>2.1770833333333361</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="11">
         <v>44106</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
+      <c r="B52" s="10">
         <v>2.1875000000000027</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="11">
         <v>44107</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
+      <c r="B53" s="10">
         <v>2.1979166666666692</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="11">
         <v>44108</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
+      <c r="B54" s="10">
         <v>2.2083333333333357</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="11">
         <v>44109</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
+      <c r="B55" s="10">
         <v>2.2187500000000022</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="11">
         <v>44110</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="12">
+      <c r="B56" s="10">
         <v>2.2291666666666687</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="11">
         <v>44111</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="12">
+      <c r="B57" s="10">
         <v>2.2395833333333353</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="11">
         <v>44112</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="12">
+      <c r="B58" s="10">
         <v>2.2500000000000018</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="11">
         <v>44113</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="12">
+      <c r="B59" s="10">
         <v>2.2604166666666683</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="11">
         <v>44114</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="12">
+      <c r="B60" s="10">
         <v>2.2708333333333348</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="11">
         <v>44115</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="12">
+      <c r="B61" s="10">
         <v>2.2812500000000013</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="11">
         <v>44116</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="12">
+      <c r="B62" s="10">
         <v>2.2916666666666679</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="11">
         <v>44117</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="12">
+      <c r="B63" s="10">
         <v>2.3020833333333344</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="11">
         <v>44118</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="12">
+      <c r="B64" s="10">
         <v>2.3125000000000009</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="11">
         <v>44119</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="12">
+      <c r="B65" s="10">
         <v>2.3229166666666674</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="11">
         <v>44120</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="12">
+      <c r="B66" s="10">
         <v>2.3333333333333339</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="11">
         <v>44121</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="12">
+      <c r="B67" s="10">
         <v>2.3437500000000004</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="11">
         <v>44122</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="12">
+      <c r="B68" s="10">
         <v>2.354166666666667</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="11">
         <v>44123</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="12">
+      <c r="B69" s="10">
         <v>2.3645833333333335</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="11">
         <v>44124</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="12">
+      <c r="B70" s="10">
         <v>2.375</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="11">
         <v>44125</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="12">
+      <c r="B71" s="10">
         <v>2.3854166666666665</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="11">
         <v>44126</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="12">
+      <c r="B72" s="10">
         <v>2.395833333333333</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="11">
         <v>44127</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="12">
+      <c r="B73" s="10">
         <v>2.4062499999999996</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="11">
         <v>44128</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="12">
+      <c r="B74" s="10">
         <v>2.4166666666666661</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="11">
         <v>44129</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="12">
+      <c r="B75" s="10">
         <v>2.4270833333333326</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="11">
         <v>44130</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="12">
+      <c r="B76" s="10">
         <v>2.4374999999999991</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="11">
         <v>44131</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="12">
+      <c r="B77" s="10">
         <v>2.4479166666666656</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="11">
         <v>44132</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="12">
+      <c r="B78" s="10">
         <v>2.4583333333333321</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="11">
         <v>44133</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="12">
+      <c r="B79" s="10">
         <v>2.4687499999999987</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="11">
         <v>44134</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="12">
+      <c r="B80" s="10">
         <v>2.4791666666666652</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="11">
         <v>44135</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="12">
+      <c r="B81" s="10">
         <v>2.4895833333333317</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="11">
         <v>44136</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="12">
+      <c r="B82" s="10">
         <v>2.4999999999999982</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="11">
         <v>44137</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="12">
+      <c r="B83" s="10">
         <v>2.5104166666666647</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="11">
         <v>44138</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="12">
+      <c r="B84" s="10">
         <v>2.5208333333333313</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="11">
         <v>44139</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="12">
+      <c r="B85" s="10">
         <v>2.5312499999999978</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="11">
         <v>44140</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="12">
+      <c r="B86" s="10">
         <v>2.5416666666666643</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="11">
         <v>44141</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="12">
+      <c r="B87" s="10">
         <v>2.5520833333333308</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="11">
         <v>44142</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="12">
+      <c r="B88" s="10">
         <v>2.5624999999999973</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="11">
         <v>44143</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="12">
+      <c r="B89" s="10">
         <v>2.5729166666666639</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="11">
         <v>44144</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="12">
+      <c r="B90" s="10">
         <v>2.5833333333333304</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="11">
         <v>44145</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="12">
+      <c r="B91" s="10">
         <v>2.5937499999999969</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="11">
         <v>44146</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="12">
+      <c r="B92" s="10">
         <v>2.6041666666666634</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="11">
         <v>44147</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="12">
+      <c r="B93" s="10">
         <v>2.6145833333333299</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="11">
         <v>44148</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="12">
+      <c r="B94" s="10">
         <v>2.6249999999999964</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="11">
         <v>44149</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="12">
+      <c r="B95" s="10">
         <v>2.635416666666663</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="11">
         <v>44150</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="12">
+      <c r="B96" s="10">
         <v>2.6458333333333295</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="11">
         <v>44151</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="12">
+      <c r="B97" s="10">
         <v>2.656249999999996</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="11">
         <v>44152</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="12">
+      <c r="B98" s="10">
         <v>2.6666666666666625</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="11">
         <v>44153</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="12">
+      <c r="B99" s="10">
         <v>2.677083333333329</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="11">
         <v>44154</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="12">
+      <c r="B100" s="10">
         <v>2.6874999999999956</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="11">
         <v>44155</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="12">
+      <c r="B101" s="10">
         <v>2.6979166666666621</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="11">
         <v>44156</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="12">
+      <c r="B102" s="10">
         <v>2.7083333333333286</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C102" s="11">
         <v>44157</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="12">
+      <c r="B103" s="10">
         <v>2.7187499999999951</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="11">
         <v>44158</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="12">
+      <c r="B104" s="10">
         <v>2.7291666666666616</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="11">
         <v>44159</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="12">
+      <c r="B105" s="10">
         <v>2.7395833333333282</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="11">
         <v>44160</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="12">
+      <c r="B106" s="10">
         <v>2.7499999999999947</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="11">
         <v>44161</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="12">
+      <c r="B107" s="10">
         <v>2.7604166666666612</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="11">
         <v>44162</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="12">
+      <c r="B108" s="10">
         <v>2.7708333333333277</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="11">
         <v>44163</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="12">
+      <c r="B109" s="10">
         <v>2.7812499999999942</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="11">
         <v>44164</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="12">
+      <c r="B110" s="10">
         <v>2.7916666666666607</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="11">
         <v>44165</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="12">
+      <c r="B111" s="10">
         <v>2.8020833333333273</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="11">
         <v>44166</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="12">
+      <c r="B112" s="10">
         <v>2.8124999999999938</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C112" s="11">
         <v>44167</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="12">
+      <c r="B113" s="10">
         <v>2.8229166666666603</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="11">
         <v>44168</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="12">
+      <c r="B114" s="10">
         <v>2.8333333333333268</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="11">
         <v>44169</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="12">
+      <c r="B115" s="10">
         <v>2.8437499999999933</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="11">
         <v>44170</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="12">
+      <c r="B116" s="10">
         <v>2.8541666666666599</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="11">
         <v>44171</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="12">
+      <c r="B117" s="10">
         <v>2.8645833333333264</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="11">
         <v>44172</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="12">
+      <c r="B118" s="10">
         <v>2.8749999999999929</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C118" s="11">
         <v>44173</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="12">
+      <c r="B119" s="10">
         <v>2.8854166666666594</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="11">
         <v>44174</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="12">
+      <c r="B120" s="10">
         <v>2.8958333333333259</v>
       </c>
-      <c r="C120" s="13">
+      <c r="C120" s="11">
         <v>44175</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="12">
+      <c r="B121" s="10">
         <v>2.9062499999999925</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C121" s="11">
         <v>44176</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="12">
+      <c r="B122" s="10">
         <v>2.916666666666659</v>
       </c>
-      <c r="C122" s="13">
+      <c r="C122" s="11">
         <v>44177</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="12">
+      <c r="B123" s="10">
         <v>2.9270833333333255</v>
       </c>
-      <c r="C123" s="13">
+      <c r="C123" s="11">
         <v>44178</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="12">
+      <c r="B124" s="10">
         <v>2.937499999999992</v>
       </c>
-      <c r="C124" s="13">
+      <c r="C124" s="11">
         <v>44179</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="12">
+      <c r="B125" s="10">
         <v>2.9479166666666585</v>
       </c>
-      <c r="C125" s="13">
+      <c r="C125" s="11">
         <v>44180</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="12">
+      <c r="B126" s="10">
         <v>2.958333333333325</v>
       </c>
-      <c r="C126" s="13">
+      <c r="C126" s="11">
         <v>44181</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="12">
+      <c r="B127" s="10">
         <v>2.9687499999999916</v>
       </c>
-      <c r="C127" s="13">
+      <c r="C127" s="11">
         <v>44182</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="12">
+      <c r="B128" s="10">
         <v>2.9791666666666581</v>
       </c>
-      <c r="C128" s="13">
+      <c r="C128" s="11">
         <v>44183</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="12">
+      <c r="B129" s="10">
         <v>2.9895833333333246</v>
       </c>
-      <c r="C129" s="13">
+      <c r="C129" s="11">
         <v>44184</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="12">
+      <c r="B130" s="10">
         <v>2.9999999999999911</v>
       </c>
-      <c r="C130" s="13">
+      <c r="C130" s="11">
         <v>44185</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="12">
+      <c r="B131" s="10">
         <v>3.0104166666666576</v>
       </c>
-      <c r="C131" s="13">
+      <c r="C131" s="11">
         <v>44186</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="12">
+      <c r="B132" s="10">
         <v>3.0208333333333242</v>
       </c>
-      <c r="C132" s="13">
+      <c r="C132" s="11">
         <v>44187</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="12">
+      <c r="B133" s="10">
         <v>3.0312499999999907</v>
       </c>
-      <c r="C133" s="13">
+      <c r="C133" s="11">
         <v>44188</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="12">
+      <c r="B134" s="10">
         <v>3.0416666666666572</v>
       </c>
-      <c r="C134" s="13">
+      <c r="C134" s="11">
         <v>44189</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="12">
+      <c r="B135" s="10">
         <v>3.0520833333333237</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C135" s="11">
         <v>44190</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="12">
+      <c r="B136" s="10">
         <v>3.0624999999999902</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C136" s="11">
         <v>44191</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="12">
+      <c r="B137" s="10">
         <v>3.0729166666666567</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C137" s="11">
         <v>44192</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="12">
+      <c r="B138" s="10">
         <v>3.0833333333333233</v>
       </c>
-      <c r="C138" s="13">
+      <c r="C138" s="11">
         <v>44193</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="12">
+      <c r="B139" s="10">
         <v>3.0937499999999898</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="11">
         <v>44194</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="12">
+      <c r="B140" s="10">
         <v>3.1041666666666563</v>
       </c>
-      <c r="C140" s="13">
+      <c r="C140" s="11">
         <v>44195</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="12">
+      <c r="B141" s="10">
         <v>3.1145833333333228</v>
       </c>
-      <c r="C141" s="13">
+      <c r="C141" s="11">
         <v>44196</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="12">
+      <c r="B142" s="10">
         <v>3.1249999999999893</v>
       </c>
-      <c r="C142" s="13">
+      <c r="C142" s="11">
         <v>44197</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="12">
+      <c r="B143" s="10">
         <v>3.1354166666666559</v>
       </c>
-      <c r="C143" s="13">
+      <c r="C143" s="11">
         <v>44198</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="12">
+      <c r="B144" s="10">
         <v>3.1458333333333224</v>
       </c>
-      <c r="C144" s="13">
+      <c r="C144" s="11">
         <v>44199</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="12">
+      <c r="B145" s="10">
         <v>3.1562499999999889</v>
       </c>
-      <c r="C145" s="13">
+      <c r="C145" s="11">
         <v>44200</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="12">
+      <c r="B146" s="10">
         <v>3.1666666666666554</v>
       </c>
-      <c r="C146" s="13">
+      <c r="C146" s="11">
         <v>44201</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="12">
+      <c r="B147" s="10">
         <v>3.1770833333333219</v>
       </c>
-      <c r="C147" s="13">
+      <c r="C147" s="11">
         <v>44202</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="12">
+      <c r="B148" s="10">
         <v>3.1874999999999885</v>
       </c>
-      <c r="C148" s="13">
+      <c r="C148" s="11">
         <v>44203</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="12">
+      <c r="B149" s="10">
         <v>3.197916666666655</v>
       </c>
-      <c r="C149" s="13">
+      <c r="C149" s="11">
         <v>44204</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="12">
+      <c r="B150" s="10">
         <v>3.2083333333333215</v>
       </c>
-      <c r="C150" s="13">
+      <c r="C150" s="11">
         <v>44205</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="12">
+      <c r="B151" s="10">
         <v>3.218749999999988</v>
       </c>
-      <c r="C151" s="13">
+      <c r="C151" s="11">
         <v>44206</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="12">
+      <c r="B152" s="10">
         <v>3.2291666666666545</v>
       </c>
-      <c r="C152" s="13">
+      <c r="C152" s="11">
         <v>44207</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="12">
+      <c r="B153" s="10">
         <v>3.239583333333321</v>
       </c>
-      <c r="C153" s="13">
+      <c r="C153" s="11">
         <v>44208</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="12">
+      <c r="B154" s="10">
         <v>3.2499999999999876</v>
       </c>
-      <c r="C154" s="13">
+      <c r="C154" s="11">
         <v>44209</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="12">
+      <c r="B155" s="10">
         <v>3.2604166666666541</v>
       </c>
-      <c r="C155" s="13">
+      <c r="C155" s="11">
         <v>44210</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="12">
+      <c r="B156" s="10">
         <v>3.2708333333333206</v>
       </c>
-      <c r="C156" s="13">
+      <c r="C156" s="11">
         <v>44211</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="12">
+      <c r="B157" s="10">
         <v>3.2812499999999871</v>
       </c>
-      <c r="C157" s="13">
+      <c r="C157" s="11">
         <v>44212</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" s="12">
+      <c r="B158" s="10">
         <v>3.2916666666666536</v>
       </c>
-      <c r="C158" s="13">
+      <c r="C158" s="11">
         <v>44213</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" s="12">
+      <c r="B159" s="10">
         <v>3.3020833333333202</v>
       </c>
-      <c r="C159" s="13">
+      <c r="C159" s="11">
         <v>44214</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="12">
+      <c r="B160" s="10">
         <v>3.3124999999999867</v>
       </c>
-      <c r="C160" s="13">
+      <c r="C160" s="11">
         <v>44215</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="12">
+      <c r="B161" s="10">
         <v>3.3229166666666532</v>
       </c>
-      <c r="C161" s="13">
+      <c r="C161" s="11">
         <v>44216</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="12">
+      <c r="B162" s="10">
         <v>3.3333333333333197</v>
       </c>
-      <c r="C162" s="13">
+      <c r="C162" s="11">
         <v>44217</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="12">
+      <c r="B163" s="10">
         <v>3.3437499999999862</v>
       </c>
-      <c r="C163" s="13">
+      <c r="C163" s="11">
         <v>44218</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="12">
+      <c r="B164" s="10">
         <v>3.3541666666666528</v>
       </c>
-      <c r="C164" s="13">
+      <c r="C164" s="11">
         <v>44219</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="12">
+      <c r="B165" s="10">
         <v>3.3645833333333193</v>
       </c>
-      <c r="C165" s="13">
+      <c r="C165" s="11">
         <v>44220</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="12">
+      <c r="B166" s="10">
         <v>3.3749999999999858</v>
       </c>
-      <c r="C166" s="13">
+      <c r="C166" s="11">
         <v>44221</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="12">
+      <c r="B167" s="10">
         <v>3.3854166666666523</v>
       </c>
-      <c r="C167" s="13">
+      <c r="C167" s="11">
         <v>44222</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="12">
+      <c r="B168" s="10">
         <v>3.3958333333333188</v>
       </c>
-      <c r="C168" s="13">
+      <c r="C168" s="11">
         <v>44223</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="12">
+      <c r="B169" s="10">
         <v>3.4062499999999853</v>
       </c>
-      <c r="C169" s="13">
+      <c r="C169" s="11">
         <v>44224</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="12">
+      <c r="B170" s="10">
         <v>3.4166666666666519</v>
       </c>
-      <c r="C170" s="13">
+      <c r="C170" s="11">
         <v>44225</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="12">
+      <c r="B171" s="10">
         <v>3.4270833333333184</v>
       </c>
-      <c r="C171" s="13">
+      <c r="C171" s="11">
         <v>44226</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="12">
+      <c r="B172" s="10">
         <v>3.4374999999999849</v>
       </c>
-      <c r="C172" s="13">
+      <c r="C172" s="11">
         <v>44227</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="12">
+      <c r="B173" s="10">
         <v>3.4479166666666514</v>
       </c>
-      <c r="C173" s="13">
+      <c r="C173" s="11">
         <v>44228</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="12">
+      <c r="B174" s="10">
         <v>3.4583333333333179</v>
       </c>
-      <c r="C174" s="13">
+      <c r="C174" s="11">
         <v>44229</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="12">
+      <c r="B175" s="10">
         <v>3.4687499999999845</v>
       </c>
-      <c r="C175" s="13">
+      <c r="C175" s="11">
         <v>44230</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="12">
+      <c r="B176" s="10">
         <v>3.479166666666651</v>
       </c>
-      <c r="C176" s="13">
+      <c r="C176" s="11">
         <v>44231</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="12">
+      <c r="B177" s="10">
         <v>3.4895833333333175</v>
       </c>
-      <c r="C177" s="13">
+      <c r="C177" s="11">
         <v>44232</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="12">
+      <c r="B178" s="10">
         <v>3.499999999999984</v>
       </c>
-      <c r="C178" s="13">
+      <c r="C178" s="11">
         <v>44233</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="12">
+      <c r="B179" s="10">
         <v>3.5104166666666505</v>
       </c>
-      <c r="C179" s="13">
+      <c r="C179" s="11">
         <v>44234</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="12">
+      <c r="B180" s="10">
         <v>3.5208333333333171</v>
       </c>
-      <c r="C180" s="13">
+      <c r="C180" s="11">
         <v>44235</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="12">
+      <c r="B181" s="10">
         <v>3.5312499999999836</v>
       </c>
-      <c r="C181" s="13">
+      <c r="C181" s="11">
         <v>44236</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="12">
+      <c r="B182" s="10">
         <v>3.5416666666666501</v>
       </c>
-      <c r="C182" s="13">
+      <c r="C182" s="11">
         <v>44237</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="12">
+      <c r="B183" s="10">
         <v>3.5520833333333166</v>
       </c>
-      <c r="C183" s="13">
+      <c r="C183" s="11">
         <v>44238</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="12">
+      <c r="B184" s="10">
         <v>3.5624999999999831</v>
       </c>
-      <c r="C184" s="13">
+      <c r="C184" s="11">
         <v>44239</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="12">
+      <c r="B185" s="10">
         <v>3.5729166666666496</v>
       </c>
-      <c r="C185" s="13">
+      <c r="C185" s="11">
         <v>44240</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="12">
+      <c r="B186" s="10">
         <v>3.5833333333333162</v>
       </c>
-      <c r="C186" s="13">
+      <c r="C186" s="11">
         <v>44241</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="12">
+      <c r="B187" s="10">
         <v>3.5937499999999827</v>
       </c>
-      <c r="C187" s="13">
+      <c r="C187" s="11">
         <v>44242</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="12">
+      <c r="B188" s="10">
         <v>3.6041666666666492</v>
       </c>
-      <c r="C188" s="13">
+      <c r="C188" s="11">
         <v>44243</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="12">
+      <c r="B189" s="10">
         <v>3.6145833333333157</v>
       </c>
-      <c r="C189" s="13">
+      <c r="C189" s="11">
         <v>44244</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="12">
+      <c r="B190" s="10">
         <v>3.6249999999999822</v>
       </c>
-      <c r="C190" s="13">
+      <c r="C190" s="11">
         <v>44245</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="12">
+      <c r="B191" s="10">
         <v>3.6354166666666488</v>
       </c>
-      <c r="C191" s="13">
+      <c r="C191" s="11">
         <v>44246</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="12">
+      <c r="B192" s="10">
         <v>3.6458333333333153</v>
       </c>
-      <c r="C192" s="13">
+      <c r="C192" s="11">
         <v>44247</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="12">
+      <c r="B193" s="10">
         <v>3.6562499999999818</v>
       </c>
-      <c r="C193" s="13">
+      <c r="C193" s="11">
         <v>44248</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="12"/>
-      <c r="C194" s="13">
+      <c r="B194" s="10"/>
+      <c r="C194" s="11">
         <v>44249</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="12"/>
-      <c r="C195" s="13">
+      <c r="B195" s="10"/>
+      <c r="C195" s="11">
         <v>44250</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="12"/>
-      <c r="C196" s="13">
+      <c r="B196" s="10"/>
+      <c r="C196" s="11">
         <v>44251</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="12"/>
-      <c r="C197" s="13">
+      <c r="B197" s="10"/>
+      <c r="C197" s="11">
         <v>44252</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="12"/>
-      <c r="C198" s="13">
+      <c r="B198" s="10"/>
+      <c r="C198" s="11">
         <v>44253</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="12"/>
-      <c r="C199" s="13">
+      <c r="B199" s="10"/>
+      <c r="C199" s="11">
         <v>44254</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="12"/>
-      <c r="C200" s="13">
+      <c r="B200" s="10"/>
+      <c r="C200" s="11">
         <v>44255</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B201" s="12"/>
-      <c r="C201" s="13">
+      <c r="B201" s="10"/>
+      <c r="C201" s="11">
         <v>44256</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B202" s="12"/>
-      <c r="C202" s="13">
+      <c r="B202" s="10"/>
+      <c r="C202" s="11">
         <v>44257</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="12"/>
-      <c r="C203" s="13">
+      <c r="B203" s="10"/>
+      <c r="C203" s="11">
         <v>44258</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="12"/>
-      <c r="C204" s="13">
+      <c r="B204" s="10"/>
+      <c r="C204" s="11">
         <v>44259</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="12"/>
-      <c r="C205" s="13">
+      <c r="B205" s="10"/>
+      <c r="C205" s="11">
         <v>44260</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="12"/>
-      <c r="C206" s="13">
+      <c r="B206" s="10"/>
+      <c r="C206" s="11">
         <v>44261</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="12"/>
-      <c r="C207" s="13">
+      <c r="B207" s="10"/>
+      <c r="C207" s="11">
         <v>44262</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="12"/>
-      <c r="C208" s="13">
+      <c r="B208" s="10"/>
+      <c r="C208" s="11">
         <v>44263</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" s="12"/>
-      <c r="C209" s="13">
+      <c r="B209" s="10"/>
+      <c r="C209" s="11">
         <v>44264</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="12"/>
-      <c r="C210" s="13">
+      <c r="B210" s="10"/>
+      <c r="C210" s="11">
         <v>44265</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="12"/>
-      <c r="C211" s="13">
+      <c r="B211" s="10"/>
+      <c r="C211" s="11">
         <v>44266</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="12"/>
-      <c r="C212" s="13">
+      <c r="B212" s="10"/>
+      <c r="C212" s="11">
         <v>44267</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="12"/>
-      <c r="C213" s="13">
+      <c r="B213" s="10"/>
+      <c r="C213" s="11">
         <v>44268</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="12"/>
-      <c r="C214" s="13">
+      <c r="B214" s="10"/>
+      <c r="C214" s="11">
         <v>44269</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="12"/>
-      <c r="C215" s="13">
+      <c r="B215" s="10"/>
+      <c r="C215" s="11">
         <v>44270</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="12"/>
-      <c r="C216" s="13">
+      <c r="B216" s="10"/>
+      <c r="C216" s="11">
         <v>44271</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="12"/>
-      <c r="C217" s="13">
+      <c r="B217" s="10"/>
+      <c r="C217" s="11">
         <v>44272</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="12"/>
-      <c r="C218" s="13">
+      <c r="B218" s="10"/>
+      <c r="C218" s="11">
         <v>44273</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="12"/>
-      <c r="C219" s="13">
+      <c r="B219" s="10"/>
+      <c r="C219" s="11">
         <v>44274</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="12"/>
-      <c r="C220" s="13">
+      <c r="B220" s="10"/>
+      <c r="C220" s="11">
         <v>44275</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="12"/>
-      <c r="C221" s="13">
+      <c r="B221" s="10"/>
+      <c r="C221" s="11">
         <v>44276</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B222" s="12"/>
-      <c r="C222" s="13">
+      <c r="B222" s="10"/>
+      <c r="C222" s="11">
         <v>44277</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B223" s="12"/>
-      <c r="C223" s="13">
+      <c r="B223" s="10"/>
+      <c r="C223" s="11">
         <v>44278</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="12"/>
-      <c r="C224" s="13">
+      <c r="B224" s="10"/>
+      <c r="C224" s="11">
         <v>44279</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="12"/>
-      <c r="C225" s="13">
+      <c r="B225" s="10"/>
+      <c r="C225" s="11">
         <v>44280</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="12"/>
-      <c r="C226" s="13">
+      <c r="B226" s="10"/>
+      <c r="C226" s="11">
         <v>44281</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="12"/>
-      <c r="C227" s="13">
+      <c r="B227" s="10"/>
+      <c r="C227" s="11">
         <v>44282</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="12"/>
-      <c r="C228" s="13">
+      <c r="B228" s="10"/>
+      <c r="C228" s="11">
         <v>44283</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="12"/>
-      <c r="C229" s="13">
+      <c r="B229" s="10"/>
+      <c r="C229" s="11">
         <v>44284</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B230" s="12"/>
-      <c r="C230" s="13">
+      <c r="B230" s="10"/>
+      <c r="C230" s="11">
         <v>44285</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="12"/>
-      <c r="C231" s="13">
+      <c r="B231" s="10"/>
+      <c r="C231" s="11">
         <v>44286</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B232" s="12"/>
-      <c r="C232" s="13">
+      <c r="B232" s="10"/>
+      <c r="C232" s="11">
         <v>44287</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B233" s="12"/>
-      <c r="C233" s="13">
+      <c r="B233" s="10"/>
+      <c r="C233" s="11">
         <v>44288</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B234" s="12"/>
-      <c r="C234" s="13">
+      <c r="B234" s="10"/>
+      <c r="C234" s="11">
         <v>44289</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="12"/>
-      <c r="C235" s="13">
+      <c r="B235" s="10"/>
+      <c r="C235" s="11">
         <v>44290</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="12"/>
-      <c r="C236" s="13">
+      <c r="B236" s="10"/>
+      <c r="C236" s="11">
         <v>44291</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="12"/>
-      <c r="C237" s="13">
+      <c r="B237" s="10"/>
+      <c r="C237" s="11">
         <v>44292</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="12"/>
-      <c r="C238" s="13">
+      <c r="B238" s="10"/>
+      <c r="C238" s="11">
         <v>44293</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="12"/>
-      <c r="C239" s="13">
+      <c r="B239" s="10"/>
+      <c r="C239" s="11">
         <v>44294</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="12"/>
-      <c r="C240" s="13">
+      <c r="B240" s="10"/>
+      <c r="C240" s="11">
         <v>44295</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B241" s="12"/>
-      <c r="C241" s="13">
+      <c r="B241" s="10"/>
+      <c r="C241" s="11">
         <v>44296</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B242" s="12"/>
-      <c r="C242" s="13">
+      <c r="B242" s="10"/>
+      <c r="C242" s="11">
         <v>44297</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B243" s="12"/>
-      <c r="C243" s="13">
+      <c r="B243" s="10"/>
+      <c r="C243" s="11">
         <v>44298</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B244" s="12"/>
-      <c r="C244" s="13">
+      <c r="B244" s="10"/>
+      <c r="C244" s="11">
         <v>44299</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B245" s="12"/>
-      <c r="C245" s="13">
+      <c r="B245" s="10"/>
+      <c r="C245" s="11">
         <v>44300</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B246" s="12"/>
-      <c r="C246" s="13">
+      <c r="B246" s="10"/>
+      <c r="C246" s="11">
         <v>44301</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B247" s="12"/>
-      <c r="C247" s="13">
+      <c r="B247" s="10"/>
+      <c r="C247" s="11">
         <v>44302</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B248" s="12"/>
-      <c r="C248" s="13">
+      <c r="B248" s="10"/>
+      <c r="C248" s="11">
         <v>44303</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B249" s="12"/>
-      <c r="C249" s="13">
+      <c r="B249" s="10"/>
+      <c r="C249" s="11">
         <v>44304</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B250" s="12"/>
-      <c r="C250" s="13">
+      <c r="B250" s="10"/>
+      <c r="C250" s="11">
         <v>44305</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B251" s="12"/>
-      <c r="C251" s="13">
+      <c r="B251" s="10"/>
+      <c r="C251" s="11">
         <v>44306</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B252" s="12"/>
-      <c r="C252" s="13">
+      <c r="B252" s="10"/>
+      <c r="C252" s="11">
         <v>44307</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B253" s="12"/>
-      <c r="C253" s="13">
+      <c r="B253" s="10"/>
+      <c r="C253" s="11">
         <v>44308</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B254" s="12"/>
-      <c r="C254" s="13">
+      <c r="B254" s="10"/>
+      <c r="C254" s="11">
         <v>44309</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B255" s="12"/>
-      <c r="C255" s="13">
+      <c r="B255" s="10"/>
+      <c r="C255" s="11">
         <v>44310</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B256" s="12"/>
-      <c r="C256" s="13">
+      <c r="B256" s="10"/>
+      <c r="C256" s="11">
         <v>44311</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B257" s="12"/>
-      <c r="C257" s="13">
+      <c r="B257" s="10"/>
+      <c r="C257" s="11">
         <v>44312</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B258" s="12"/>
-      <c r="C258" s="13">
+      <c r="B258" s="10"/>
+      <c r="C258" s="11">
         <v>44313</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B259" s="12"/>
-      <c r="C259" s="13">
+      <c r="B259" s="10"/>
+      <c r="C259" s="11">
         <v>44314</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B260" s="12"/>
-      <c r="C260" s="13">
+      <c r="B260" s="10"/>
+      <c r="C260" s="11">
         <v>44315</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B261" s="12"/>
-      <c r="C261" s="13">
+      <c r="B261" s="10"/>
+      <c r="C261" s="11">
         <v>44316</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B262" s="12"/>
-      <c r="C262" s="13">
+      <c r="B262" s="10"/>
+      <c r="C262" s="11">
         <v>44317</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B263" s="12"/>
-      <c r="C263" s="13">
+      <c r="B263" s="10"/>
+      <c r="C263" s="11">
         <v>44318</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B264" s="12"/>
-      <c r="C264" s="13">
+      <c r="B264" s="10"/>
+      <c r="C264" s="11">
         <v>44319</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B265" s="12"/>
-      <c r="C265" s="13">
+      <c r="B265" s="10"/>
+      <c r="C265" s="11">
         <v>44320</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C266" s="13">
+      <c r="C266" s="11">
         <v>44321</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C267" s="13">
+      <c r="C267" s="11">
         <v>44322</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C268" s="13">
+      <c r="C268" s="11">
         <v>44323</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C269" s="13">
+      <c r="C269" s="11">
         <v>44324</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C270" s="13">
+      <c r="C270" s="11">
         <v>44325</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C271" s="13">
+      <c r="C271" s="11">
         <v>44326</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C272" s="13">
+      <c r="C272" s="11">
         <v>44327</v>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C273" s="13">
+      <c r="C273" s="11">
         <v>44328</v>
       </c>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C274" s="13">
+      <c r="C274" s="11">
         <v>44329</v>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C275" s="13">
+      <c r="C275" s="11">
         <v>44330</v>
       </c>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C276" s="13">
+      <c r="C276" s="11">
         <v>44331</v>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C277" s="13">
+      <c r="C277" s="11">
         <v>44332</v>
       </c>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C278" s="13">
+      <c r="C278" s="11">
         <v>44333</v>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C279" s="13">
+      <c r="C279" s="11">
         <v>44334</v>
       </c>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C280" s="13">
+      <c r="C280" s="11">
         <v>44335</v>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C281" s="13">
+      <c r="C281" s="11">
         <v>44336</v>
       </c>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C282" s="13">
+      <c r="C282" s="11">
         <v>44337</v>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C283" s="13">
+      <c r="C283" s="11">
         <v>44338</v>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C284" s="13">
+      <c r="C284" s="11">
         <v>44339</v>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C285" s="13">
+      <c r="C285" s="11">
         <v>44340</v>
       </c>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C286" s="13">
+      <c r="C286" s="11">
         <v>44341</v>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C287" s="13">
+      <c r="C287" s="11">
         <v>44342</v>
       </c>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C288" s="13">
+      <c r="C288" s="11">
         <v>44343</v>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C289" s="13">
+      <c r="C289" s="11">
         <v>44344</v>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C290" s="13">
+      <c r="C290" s="11">
         <v>44345</v>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C291" s="13">
+      <c r="C291" s="11">
         <v>44346</v>
       </c>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C292" s="13">
+      <c r="C292" s="11">
         <v>44347</v>
       </c>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C293" s="13">
+      <c r="C293" s="11">
         <v>44348</v>
       </c>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C294" s="13">
+      <c r="C294" s="11">
         <v>44349</v>
       </c>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C295" s="13">
+      <c r="C295" s="11">
         <v>44350</v>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C296" s="13">
+      <c r="C296" s="11">
         <v>44351</v>
       </c>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C297" s="13">
+      <c r="C297" s="11">
         <v>44352</v>
       </c>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C298" s="13">
+      <c r="C298" s="11">
         <v>44353</v>
       </c>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C299" s="13">
+      <c r="C299" s="11">
         <v>44354</v>
       </c>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C300" s="13">
+      <c r="C300" s="11">
         <v>44355</v>
       </c>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C301" s="13">
+      <c r="C301" s="11">
         <v>44356</v>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C302" s="13">
+      <c r="C302" s="11">
         <v>44357</v>
       </c>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C303" s="13">
+      <c r="C303" s="11">
         <v>44358</v>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C304" s="13">
+      <c r="C304" s="11">
         <v>44359</v>
       </c>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C305" s="13">
+      <c r="C305" s="11">
         <v>44360</v>
       </c>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C306" s="13">
+      <c r="C306" s="11">
         <v>44361</v>
       </c>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C307" s="13">
+      <c r="C307" s="11">
         <v>44362</v>
       </c>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C308" s="13">
+      <c r="C308" s="11">
         <v>44363</v>
       </c>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C309" s="13">
+      <c r="C309" s="11">
         <v>44364</v>
       </c>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C310" s="13">
+      <c r="C310" s="11">
         <v>44365</v>
       </c>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C311" s="13">
+      <c r="C311" s="11">
         <v>44366</v>
       </c>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C312" s="13">
+      <c r="C312" s="11">
         <v>44367</v>
       </c>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C313" s="13">
+      <c r="C313" s="11">
         <v>44368</v>
       </c>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C314" s="13">
+      <c r="C314" s="11">
         <v>44369</v>
       </c>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C315" s="13">
+      <c r="C315" s="11">
         <v>44370</v>
       </c>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C316" s="13">
+      <c r="C316" s="11">
         <v>44371</v>
       </c>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C317" s="13">
+      <c r="C317" s="11">
         <v>44372</v>
       </c>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C318" s="13">
+      <c r="C318" s="11">
         <v>44373</v>
       </c>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C319" s="13">
+      <c r="C319" s="11">
         <v>44374</v>
       </c>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C320" s="13">
+      <c r="C320" s="11">
         <v>44375</v>
       </c>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C321" s="13">
+      <c r="C321" s="11">
         <v>44376</v>
       </c>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C322" s="13">
+      <c r="C322" s="11">
         <v>44377</v>
       </c>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C323" s="13">
+      <c r="C323" s="11">
         <v>44378</v>
       </c>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C324" s="13">
+      <c r="C324" s="11">
         <v>44379</v>
       </c>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C325" s="13">
+      <c r="C325" s="11">
         <v>44380</v>
       </c>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C326" s="13">
+      <c r="C326" s="11">
         <v>44381</v>
       </c>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C327" s="13">
+      <c r="C327" s="11">
         <v>44382</v>
       </c>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C328" s="13">
+      <c r="C328" s="11">
         <v>44383</v>
       </c>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C329" s="13">
+      <c r="C329" s="11">
         <v>44384</v>
       </c>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C330" s="13">
+      <c r="C330" s="11">
         <v>44385</v>
       </c>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C331" s="13">
+      <c r="C331" s="11">
         <v>44386</v>
       </c>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C332" s="13">
+      <c r="C332" s="11">
         <v>44387</v>
       </c>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C333" s="13">
+      <c r="C333" s="11">
         <v>44388</v>
       </c>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C334" s="13">
+      <c r="C334" s="11">
         <v>44389</v>
       </c>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C335" s="13">
+      <c r="C335" s="11">
         <v>44390</v>
       </c>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C336" s="13">
+      <c r="C336" s="11">
         <v>44391</v>
       </c>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C337" s="13">
+      <c r="C337" s="11">
         <v>44392</v>
       </c>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C338" s="13">
+      <c r="C338" s="11">
         <v>44393</v>
       </c>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C339" s="13">
+      <c r="C339" s="11">
         <v>44394</v>
       </c>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C340" s="13">
+      <c r="C340" s="11">
         <v>44395</v>
       </c>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C341" s="13">
+      <c r="C341" s="11">
         <v>44396</v>
       </c>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C342" s="13">
+      <c r="C342" s="11">
         <v>44397</v>
       </c>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C343" s="13">
+      <c r="C343" s="11">
         <v>44398</v>
       </c>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C344" s="13">
+      <c r="C344" s="11">
         <v>44399</v>
       </c>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C345" s="13">
+      <c r="C345" s="11">
         <v>44400</v>
       </c>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C346" s="13">
+      <c r="C346" s="11">
         <v>44401</v>
       </c>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C347" s="13">
+      <c r="C347" s="11">
         <v>44402</v>
       </c>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C348" s="13">
+      <c r="C348" s="11">
         <v>44403</v>
       </c>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C349" s="13">
+      <c r="C349" s="11">
         <v>44404</v>
       </c>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C350" s="13">
+      <c r="C350" s="11">
         <v>44405</v>
       </c>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C351" s="13">
+      <c r="C351" s="11">
         <v>44406</v>
       </c>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C352" s="13">
+      <c r="C352" s="11">
         <v>44407</v>
       </c>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C353" s="13">
+      <c r="C353" s="11">
         <v>44408</v>
       </c>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C354" s="13">
+      <c r="C354" s="11">
         <v>44409</v>
       </c>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="13">
+      <c r="C355" s="11">
         <v>44410</v>
       </c>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="13">
+      <c r="C356" s="11">
         <v>44411</v>
       </c>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C357" s="13">
+      <c r="C357" s="11">
         <v>44412</v>
       </c>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C358" s="13">
+      <c r="C358" s="11">
         <v>44413</v>
       </c>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C359" s="13">
+      <c r="C359" s="11">
         <v>44414</v>
       </c>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C360" s="13">
+      <c r="C360" s="11">
         <v>44415</v>
       </c>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C361" s="13">
+      <c r="C361" s="11">
         <v>44416</v>
       </c>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C362" s="13">
+      <c r="C362" s="11">
         <v>44417</v>
       </c>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C363" s="13">
+      <c r="C363" s="11">
         <v>44418</v>
       </c>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C364" s="13">
+      <c r="C364" s="11">
         <v>44419</v>
       </c>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C365" s="13">
+      <c r="C365" s="11">
         <v>44420</v>
       </c>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C366" s="13">
+      <c r="C366" s="11">
         <v>44421</v>
       </c>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C367" s="13">
+      <c r="C367" s="11">
         <v>44422</v>
       </c>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C368" s="13">
+      <c r="C368" s="11">
         <v>44423</v>
       </c>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C369" s="13">
+      <c r="C369" s="11">
         <v>44424</v>
       </c>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C370" s="13">
+      <c r="C370" s="11">
         <v>44425</v>
       </c>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C371" s="13">
+      <c r="C371" s="11">
         <v>44426</v>
       </c>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C372" s="13">
+      <c r="C372" s="11">
         <v>44427</v>
       </c>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C373" s="13">
+      <c r="C373" s="11">
         <v>44428</v>
       </c>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C374" s="13">
+      <c r="C374" s="11">
         <v>44429</v>
       </c>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C375" s="13">
+      <c r="C375" s="11">
         <v>44430</v>
       </c>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C376" s="13">
+      <c r="C376" s="11">
         <v>44431</v>
       </c>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C377" s="13">
+      <c r="C377" s="11">
         <v>44432</v>
       </c>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C378" s="13">
+      <c r="C378" s="11">
         <v>44433</v>
       </c>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C379" s="13">
+      <c r="C379" s="11">
         <v>44434</v>
       </c>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C380" s="13">
+      <c r="C380" s="11">
         <v>44435</v>
       </c>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C381" s="13">
+      <c r="C381" s="11">
         <v>44436</v>
       </c>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C382" s="13">
+      <c r="C382" s="11">
         <v>44437</v>
       </c>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C383" s="13">
+      <c r="C383" s="11">
         <v>44438</v>
       </c>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C384" s="13">
+      <c r="C384" s="11">
         <v>44439</v>
       </c>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C385" s="13">
+      <c r="C385" s="11">
         <v>44440</v>
       </c>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C386" s="13">
+      <c r="C386" s="11">
         <v>44441</v>
       </c>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C387" s="13">
+      <c r="C387" s="11">
         <v>44442</v>
       </c>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C388" s="13">
+      <c r="C388" s="11">
         <v>44443</v>
       </c>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C389" s="13">
+      <c r="C389" s="11">
         <v>44444</v>
       </c>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C390" s="13">
+      <c r="C390" s="11">
         <v>44445</v>
       </c>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C391" s="13">
+      <c r="C391" s="11">
         <v>44446</v>
       </c>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C392" s="13">
+      <c r="C392" s="11">
         <v>44447</v>
       </c>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C393" s="13">
+      <c r="C393" s="11">
         <v>44448</v>
       </c>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C394" s="13">
+      <c r="C394" s="11">
         <v>44449</v>
       </c>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C395" s="13">
+      <c r="C395" s="11">
         <v>44450</v>
       </c>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C396" s="13">
+      <c r="C396" s="11">
         <v>44451</v>
       </c>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C397" s="13">
+      <c r="C397" s="11">
         <v>44452</v>
       </c>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C398" s="13">
+      <c r="C398" s="11">
         <v>44453</v>
       </c>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C399" s="13">
+      <c r="C399" s="11">
         <v>44454</v>
       </c>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C400" s="13">
+      <c r="C400" s="11">
         <v>44455</v>
       </c>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C401" s="13">
+      <c r="C401" s="11">
         <v>44456</v>
       </c>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C402" s="13">
+      <c r="C402" s="11">
         <v>44457</v>
       </c>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C403" s="13">
+      <c r="C403" s="11">
         <v>44458</v>
       </c>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C404" s="13">
+      <c r="C404" s="11">
         <v>44459</v>
       </c>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C405" s="13">
+      <c r="C405" s="11">
         <v>44460</v>
       </c>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C406" s="13">
+      <c r="C406" s="11">
         <v>44461</v>
       </c>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C407" s="13">
+      <c r="C407" s="11">
         <v>44462</v>
       </c>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C408" s="13">
+      <c r="C408" s="11">
         <v>44463</v>
       </c>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C409" s="13">
+      <c r="C409" s="11">
         <v>44464</v>
       </c>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C410" s="13">
+      <c r="C410" s="11">
         <v>44465</v>
       </c>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C411" s="13">
+      <c r="C411" s="11">
         <v>44466</v>
       </c>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C412" s="13">
+      <c r="C412" s="11">
         <v>44467</v>
       </c>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C413" s="13">
+      <c r="C413" s="11">
         <v>44468</v>
       </c>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C414" s="13">
+      <c r="C414" s="11">
         <v>44469</v>
       </c>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C415" s="13">
+      <c r="C415" s="11">
         <v>44470</v>
       </c>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C416" s="13">
+      <c r="C416" s="11">
         <v>44471</v>
       </c>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C417" s="13">
+      <c r="C417" s="11">
         <v>44472</v>
       </c>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C418" s="13">
+      <c r="C418" s="11">
         <v>44473</v>
       </c>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C419" s="13">
+      <c r="C419" s="11">
         <v>44474</v>
       </c>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C420" s="13">
+      <c r="C420" s="11">
         <v>44475</v>
       </c>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C421" s="13">
+      <c r="C421" s="11">
         <v>44476</v>
       </c>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C422" s="13">
+      <c r="C422" s="11">
         <v>44477</v>
       </c>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C423" s="13">
+      <c r="C423" s="11">
         <v>44478</v>
       </c>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C424" s="13">
+      <c r="C424" s="11">
         <v>44479</v>
       </c>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C425" s="13">
+      <c r="C425" s="11">
         <v>44480</v>
       </c>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C426" s="13">
+      <c r="C426" s="11">
         <v>44481</v>
       </c>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C427" s="13">
+      <c r="C427" s="11">
         <v>44482</v>
       </c>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C428" s="13">
+      <c r="C428" s="11">
         <v>44483</v>
       </c>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C429" s="13">
+      <c r="C429" s="11">
         <v>44484</v>
       </c>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C430" s="13">
+      <c r="C430" s="11">
         <v>44485</v>
       </c>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C431" s="13">
+      <c r="C431" s="11">
         <v>44486</v>
       </c>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C432" s="13">
+      <c r="C432" s="11">
         <v>44487</v>
       </c>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C433" s="13">
+      <c r="C433" s="11">
         <v>44488</v>
       </c>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C434" s="13">
+      <c r="C434" s="11">
         <v>44489</v>
       </c>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C435" s="13">
+      <c r="C435" s="11">
         <v>44490</v>
       </c>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C436" s="13">
+      <c r="C436" s="11">
         <v>44491</v>
       </c>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C437" s="13">
+      <c r="C437" s="11">
         <v>44492</v>
       </c>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C438" s="13">
+      <c r="C438" s="11">
         <v>44493</v>
       </c>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C439" s="13">
+      <c r="C439" s="11">
         <v>44494</v>
       </c>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C440" s="13">
+      <c r="C440" s="11">
         <v>44495</v>
       </c>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C441" s="13">
+      <c r="C441" s="11">
         <v>44496</v>
       </c>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C442" s="13">
+      <c r="C442" s="11">
         <v>44497</v>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C443" s="13">
+      <c r="C443" s="11">
         <v>44498</v>
       </c>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C444" s="13">
+      <c r="C444" s="11">
         <v>44499</v>
       </c>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C445" s="13">
+      <c r="C445" s="11">
         <v>44500</v>
       </c>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C446" s="13">
+      <c r="C446" s="11">
         <v>44501</v>
       </c>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C447" s="13">
+      <c r="C447" s="11">
         <v>44502</v>
       </c>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C448" s="13">
+      <c r="C448" s="11">
         <v>44503</v>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C449" s="13">
+      <c r="C449" s="11">
         <v>44504</v>
       </c>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C450" s="13">
+      <c r="C450" s="11">
         <v>44505</v>
       </c>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C451" s="13">
+      <c r="C451" s="11">
         <v>44506</v>
       </c>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C452" s="13">
+      <c r="C452" s="11">
         <v>44507</v>
       </c>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C453" s="13">
+      <c r="C453" s="11">
         <v>44508</v>
       </c>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C454" s="13">
+      <c r="C454" s="11">
         <v>44509</v>
       </c>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C455" s="13">
+      <c r="C455" s="11">
         <v>44510</v>
       </c>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C456" s="13">
+      <c r="C456" s="11">
         <v>44511</v>
       </c>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C457" s="13">
+      <c r="C457" s="11">
         <v>44512</v>
       </c>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C458" s="13">
+      <c r="C458" s="11">
         <v>44513</v>
       </c>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C459" s="13">
+      <c r="C459" s="11">
         <v>44514</v>
       </c>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C460" s="13">
+      <c r="C460" s="11">
         <v>44515</v>
       </c>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C461" s="13">
+      <c r="C461" s="11">
         <v>44516</v>
       </c>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C462" s="13">
+      <c r="C462" s="11">
         <v>44517</v>
       </c>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C463" s="13">
+      <c r="C463" s="11">
         <v>44518</v>
       </c>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C464" s="13">
+      <c r="C464" s="11">
         <v>44519</v>
       </c>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C465" s="13">
+      <c r="C465" s="11">
         <v>44520</v>
       </c>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C466" s="13">
+      <c r="C466" s="11">
         <v>44521</v>
       </c>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C467" s="13">
+      <c r="C467" s="11">
         <v>44522</v>
       </c>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C468" s="13">
+      <c r="C468" s="11">
         <v>44523</v>
       </c>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C469" s="13">
+      <c r="C469" s="11">
         <v>44524</v>
       </c>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C470" s="13">
+      <c r="C470" s="11">
         <v>44525</v>
       </c>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C471" s="13">
+      <c r="C471" s="11">
         <v>44526</v>
       </c>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C472" s="13">
+      <c r="C472" s="11">
         <v>44527</v>
       </c>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C473" s="13">
+      <c r="C473" s="11">
         <v>44528</v>
       </c>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C474" s="13">
+      <c r="C474" s="11">
         <v>44529</v>
       </c>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C475" s="13">
+      <c r="C475" s="11">
         <v>44530</v>
       </c>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C476" s="13">
+      <c r="C476" s="11">
         <v>44531</v>
       </c>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C477" s="13">
+      <c r="C477" s="11">
         <v>44532</v>
       </c>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C478" s="13">
+      <c r="C478" s="11">
         <v>44533</v>
       </c>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C479" s="13">
+      <c r="C479" s="11">
         <v>44534</v>
       </c>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C480" s="13">
+      <c r="C480" s="11">
         <v>44535</v>
       </c>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C481" s="13">
+      <c r="C481" s="11">
         <v>44536</v>
       </c>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C482" s="13">
+      <c r="C482" s="11">
         <v>44537</v>
       </c>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C483" s="13">
+      <c r="C483" s="11">
         <v>44538</v>
       </c>
     </row>
     <row r="484" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C484" s="13">
+      <c r="C484" s="11">
         <v>44539</v>
       </c>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C485" s="13">
+      <c r="C485" s="11">
         <v>44540</v>
       </c>
     </row>
     <row r="486" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C486" s="13">
+      <c r="C486" s="11">
         <v>44541</v>
       </c>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C487" s="13">
+      <c r="C487" s="11">
         <v>44542</v>
       </c>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C488" s="13">
+      <c r="C488" s="11">
         <v>44543</v>
       </c>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C489" s="13">
+      <c r="C489" s="11">
         <v>44544</v>
       </c>
     </row>
     <row r="490" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C490" s="13">
+      <c r="C490" s="11">
         <v>44545</v>
       </c>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C491" s="13">
+      <c r="C491" s="11">
         <v>44546</v>
       </c>
     </row>
     <row r="492" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C492" s="13">
+      <c r="C492" s="11">
         <v>44547</v>
       </c>
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C493" s="13">
+      <c r="C493" s="11">
         <v>44548</v>
       </c>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C494" s="13">
+      <c r="C494" s="11">
         <v>44549</v>
       </c>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C495" s="13">
+      <c r="C495" s="11">
         <v>44550</v>
       </c>
     </row>
     <row r="496" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C496" s="13">
+      <c r="C496" s="11">
         <v>44551</v>
       </c>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C497" s="13">
+      <c r="C497" s="11">
         <v>44552</v>
       </c>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C498" s="13">
+      <c r="C498" s="11">
         <v>44553</v>
       </c>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C499" s="13">
+      <c r="C499" s="11">
         <v>44554</v>
       </c>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C500" s="13">
+      <c r="C500" s="11">
         <v>44555</v>
       </c>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C501" s="13">
+      <c r="C501" s="11">
         <v>44556</v>
       </c>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C502" s="13">
+      <c r="C502" s="11">
         <v>44557</v>
       </c>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C503" s="13">
+      <c r="C503" s="11">
         <v>44558</v>
       </c>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C504" s="13">
+      <c r="C504" s="11">
         <v>44559</v>
       </c>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C505" s="13">
+      <c r="C505" s="11">
         <v>44560</v>
       </c>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C506" s="13">
+      <c r="C506" s="11">
         <v>44561</v>
       </c>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C507" s="13">
+      <c r="C507" s="11">
         <v>44562</v>
       </c>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C508" s="13">
+      <c r="C508" s="11">
         <v>44563</v>
       </c>
     </row>
     <row r="509" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C509" s="13">
+      <c r="C509" s="11">
         <v>44564</v>
       </c>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C510" s="13">
+      <c r="C510" s="11">
         <v>44565</v>
       </c>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C511" s="13">
+      <c r="C511" s="11">
         <v>44566</v>
       </c>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C512" s="13">
+      <c r="C512" s="11">
         <v>44567</v>
       </c>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C513" s="13">
+      <c r="C513" s="11">
         <v>44568</v>
       </c>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C514" s="13">
+      <c r="C514" s="11">
         <v>44569</v>
       </c>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C515" s="13">
+      <c r="C515" s="11">
         <v>44570</v>
       </c>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C516" s="13">
+      <c r="C516" s="11">
         <v>44571</v>
       </c>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C517" s="13">
+      <c r="C517" s="11">
         <v>44572</v>
       </c>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C518" s="13">
+      <c r="C518" s="11">
         <v>44573</v>
       </c>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C519" s="13">
+      <c r="C519" s="11">
         <v>44574</v>
       </c>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C520" s="13">
+      <c r="C520" s="11">
         <v>44575</v>
       </c>
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C521" s="13">
+      <c r="C521" s="11">
         <v>44576</v>
       </c>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C522" s="13">
+      <c r="C522" s="11">
         <v>44577</v>
       </c>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C523" s="13">
+      <c r="C523" s="11">
         <v>44578</v>
       </c>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C524" s="13">
+      <c r="C524" s="11">
         <v>44579</v>
       </c>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C525" s="13">
+      <c r="C525" s="11">
         <v>44580</v>
       </c>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C526" s="13">
+      <c r="C526" s="11">
         <v>44581</v>
       </c>
     </row>
     <row r="527" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C527" s="13">
+      <c r="C527" s="11">
         <v>44582</v>
       </c>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C528" s="13">
+      <c r="C528" s="11">
         <v>44583</v>
       </c>
     </row>
     <row r="529" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C529" s="13">
+      <c r="C529" s="11">
         <v>44584</v>
       </c>
     </row>
     <row r="530" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C530" s="13">
+      <c r="C530" s="11">
         <v>44585</v>
       </c>
     </row>
     <row r="531" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C531" s="13">
+      <c r="C531" s="11">
         <v>44586</v>
       </c>
     </row>
     <row r="532" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C532" s="13">
+      <c r="C532" s="11">
         <v>44587</v>
       </c>
     </row>
     <row r="533" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C533" s="13">
+      <c r="C533" s="11">
         <v>44588</v>
       </c>
     </row>
     <row r="534" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C534" s="13">
+      <c r="C534" s="11">
         <v>44589</v>
       </c>
     </row>
     <row r="535" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C535" s="13">
+      <c r="C535" s="11">
         <v>44590</v>
       </c>
     </row>
